--- a/Calculatie.xlsx
+++ b/Calculatie.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcobrattinga/GITREPO/retroclock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{945E043E-7899-2A4F-8131-211A6CE25F4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5037661F-ED58-9740-A431-666A4B2E7665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16500" xr2:uid="{6AE60F9B-1A1A-904B-AC14-26EDADA5B9A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>1 minuut</t>
   </si>
@@ -53,19 +53,37 @@
     <t>om de zoveel seconden</t>
   </si>
   <si>
-    <t>Per uur</t>
-  </si>
-  <si>
-    <t>Per dag</t>
-  </si>
-  <si>
     <t>3 weken</t>
   </si>
   <si>
     <t>1 week</t>
   </si>
   <si>
-    <t>Per drie weken</t>
+    <t>Startmoment</t>
+  </si>
+  <si>
+    <t>Eindmoment</t>
+  </si>
+  <si>
+    <t>Aantal dagen</t>
+  </si>
+  <si>
+    <t>Second te snel</t>
+  </si>
+  <si>
+    <t>Aantal extra seconden gekregen</t>
+  </si>
+  <si>
+    <t>Had moeten zijn</t>
+  </si>
+  <si>
+    <t>Extra seconden moet zijn</t>
+  </si>
+  <si>
+    <t>Nieuwe instelling</t>
+  </si>
+  <si>
+    <t>Datum instelling</t>
   </si>
 </sst>
 </file>
@@ -101,8 +119,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -417,19 +436,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5561B61F-9EA2-1248-9F1B-DAFE67C83880}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -452,7 +478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -464,9 +490,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <f>7*B3</f>
@@ -476,9 +502,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <f>3*B4</f>
@@ -488,55 +514,121 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>16200</v>
+        <v>17280</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C8">
-        <f>B2/C6</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C9">
-        <f>B3/C6</f>
-        <v>5.333333333333333</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>16200</v>
+      </c>
+      <c r="I17" s="1">
+        <v>43794</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43794</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43815</v>
+      </c>
+      <c r="C18">
+        <f>B18-A18</f>
+        <v>21</v>
+      </c>
+      <c r="D18">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C10">
-        <f>B5/C6</f>
+      <c r="E18">
+        <f>C18*$B$3/H17</f>
         <v>112</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F18">
+        <f>E18-D18</f>
+        <v>105</v>
+      </c>
+      <c r="G18">
+        <f>C18*$B$3/F18</f>
+        <v>17280</v>
+      </c>
+      <c r="H18">
+        <v>17280</v>
+      </c>
+      <c r="I18" s="1">
+        <v>43815</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43815</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43919</v>
+      </c>
+      <c r="C19">
+        <f>B19-A19</f>
+        <v>104</v>
+      </c>
+      <c r="D19">
         <v>10</v>
       </c>
-      <c r="F10">
-        <f>$B$5/C10</f>
-        <v>16200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C11">
-        <v>105</v>
-      </c>
-      <c r="F11">
-        <f>$B$5/C11</f>
-        <v>17280</v>
+      <c r="E19">
+        <f>C19*$B$3/$C$6</f>
+        <v>520</v>
+      </c>
+      <c r="F19">
+        <f>E19-D19</f>
+        <v>510</v>
+      </c>
+      <c r="G19">
+        <f>C19*$B$3/F19</f>
+        <v>17618.823529411766</v>
+      </c>
+      <c r="H19">
+        <v>17619</v>
+      </c>
+      <c r="I19" s="1">
+        <v>43919</v>
       </c>
     </row>
   </sheetData>
